--- a/biology/Zoologie/Brachaelurus_colcloughi/Brachaelurus_colcloughi.xlsx
+++ b/biology/Zoologie/Brachaelurus_colcloughi/Brachaelurus_colcloughi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Requin aveugle gris-bleu (Brachaelurus colcloughi) est une espèce de requin de la famille des Brachaeluridae.
 </t>
@@ -511,10 +523,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Requin aveugle gris-bleu a été décrit par l'ichtyologiste australien James Douglas Ogilby en 1908. Il a nommé ce requin en l'honneur de son ami, John Colclough.
-En 1940, Gilbert Percy Whitley publie les premières illustrations de Brachaelurus colcloughi. Elles étaient malheureusement inexactes, et une grande confusion taxinomique s'est produite. Cela a été résolu quand le musée du Queensland a obtenu de nouveaux spécimens[1],[2].
+En 1940, Gilbert Percy Whitley publie les premières illustrations de Brachaelurus colcloughi. Elles étaient malheureusement inexactes, et une grande confusion taxinomique s'est produite. Cela a été résolu quand le musée du Queensland a obtenu de nouveaux spécimens,.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le requin aveugle des roches mesure entre 60 et 80 cm. Sa coloration est gris-bleu dans sa partie antérieure et brun dans sa partie postérieure.
 </t>
@@ -574,7 +590,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il vit dans le Pacifique Ouest dans le Pacifique ouest, de 12 à 29° Sud principalement le long de la côte du Queensland en Australie. Il arpente les fonds récifaux dans la zone intertidale.
 </t>
